--- a/presentes.xlsx
+++ b/presentes.xlsx
@@ -297,13 +297,13 @@
     <t xml:space="preserve">Garantir o kit para o dia seguinte: água, remédio da ressaca e lanchinhos </t>
   </si>
   <si>
-    <t>Para noiva comprar o “vale paciência” (é justo que muito custe o que muito vale) rs</t>
-  </si>
-  <si>
     <t>Para o noivo comprar um lanche com 2 hambúrgueres mal passado e duplo cheddar</t>
   </si>
   <si>
     <t>Ajude a climatizar o cantinho dos noivos</t>
+  </si>
+  <si>
+    <t>Para noiva comprar o “vale paciência” (é justo que muito custe o que muito vale)</t>
   </si>
 </sst>
 </file>
@@ -790,9 +790,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1120,14 +1119,14 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="51.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="94.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1157,7 +1156,7 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>330</v>
       </c>
       <c r="E2" t="s">
@@ -1174,7 +1173,7 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>320</v>
       </c>
       <c r="E3" t="s">
@@ -1189,9 +1188,9 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="2">
+        <v>94</v>
+      </c>
+      <c r="D4" s="1">
         <v>400</v>
       </c>
       <c r="E4" t="s">
@@ -1208,7 +1207,7 @@
       <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>450</v>
       </c>
       <c r="E5" t="s">
@@ -1223,9 +1222,9 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" s="2">
+        <v>92</v>
+      </c>
+      <c r="D6" s="1">
         <v>200</v>
       </c>
       <c r="E6" t="s">
@@ -1240,9 +1239,9 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="2">
+        <v>93</v>
+      </c>
+      <c r="D7" s="1">
         <v>550</v>
       </c>
       <c r="E7" t="s">
@@ -1259,7 +1258,7 @@
       <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>250</v>
       </c>
       <c r="E8" t="s">
@@ -1276,7 +1275,7 @@
       <c r="C9" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>260</v>
       </c>
       <c r="E9" t="s">
@@ -1293,7 +1292,7 @@
       <c r="C10" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>360</v>
       </c>
       <c r="E10" t="s">
@@ -1310,7 +1309,7 @@
       <c r="C11" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>800</v>
       </c>
       <c r="E11" t="s">
@@ -1327,7 +1326,7 @@
       <c r="C12" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>240</v>
       </c>
       <c r="E12" t="s">
@@ -1344,7 +1343,7 @@
       <c r="C13" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>450</v>
       </c>
       <c r="E13" t="s">
@@ -1361,7 +1360,7 @@
       <c r="C14" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>340</v>
       </c>
       <c r="E14" t="s">
@@ -1378,7 +1377,7 @@
       <c r="C15" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>450</v>
       </c>
       <c r="E15" t="s">
@@ -1395,7 +1394,7 @@
       <c r="C16" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>420</v>
       </c>
       <c r="E16" t="s">
@@ -1412,7 +1411,7 @@
       <c r="C17" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>1100</v>
       </c>
       <c r="E17" t="s">
@@ -1429,7 +1428,7 @@
       <c r="C18" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>1200</v>
       </c>
       <c r="E18" t="s">
@@ -1446,7 +1445,7 @@
       <c r="C19" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>800</v>
       </c>
       <c r="E19" t="s">
@@ -1463,7 +1462,7 @@
       <c r="C20" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>350</v>
       </c>
       <c r="E20" t="s">
@@ -1480,7 +1479,7 @@
       <c r="C21" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>1150</v>
       </c>
       <c r="E21" t="s">
@@ -1497,7 +1496,7 @@
       <c r="C22" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>450</v>
       </c>
       <c r="E22" t="s">
@@ -1514,7 +1513,7 @@
       <c r="C23" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>900</v>
       </c>
       <c r="E23" t="s">
@@ -1531,7 +1530,7 @@
       <c r="C24" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>380</v>
       </c>
       <c r="E24" t="s">
